--- a/Code/Results/Cases/Case_5_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_144/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.061545494721814</v>
+        <v>1.087693701173381</v>
       </c>
       <c r="D2">
-        <v>1.075383502213923</v>
+        <v>1.090087753345538</v>
       </c>
       <c r="E2">
-        <v>1.067840171871067</v>
+        <v>1.090023313609521</v>
       </c>
       <c r="F2">
-        <v>1.079633539989562</v>
+        <v>1.10124700516267</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.080500494744261</v>
+        <v>1.069491623842711</v>
       </c>
       <c r="J2">
-        <v>1.082029251517349</v>
+        <v>1.092537525210106</v>
       </c>
       <c r="K2">
-        <v>1.085883791043825</v>
+        <v>1.092736205283928</v>
       </c>
       <c r="L2">
-        <v>1.078428871386702</v>
+        <v>1.092671930797378</v>
       </c>
       <c r="M2">
-        <v>1.090084688808788</v>
+        <v>1.10386715452933</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.068636665358103</v>
+        <v>1.089082650834224</v>
       </c>
       <c r="D3">
-        <v>1.081252080940574</v>
+        <v>1.091243477302079</v>
       </c>
       <c r="E3">
-        <v>1.074132821545715</v>
+        <v>1.091276826003912</v>
       </c>
       <c r="F3">
-        <v>1.086145486101388</v>
+        <v>1.102559642743688</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.08372221248465</v>
+        <v>1.070024886520649</v>
       </c>
       <c r="J3">
-        <v>1.087416343359563</v>
+        <v>1.093588501226809</v>
       </c>
       <c r="K3">
-        <v>1.090941077836055</v>
+        <v>1.093711178777864</v>
       </c>
       <c r="L3">
-        <v>1.083897521538084</v>
+        <v>1.093744448162252</v>
       </c>
       <c r="M3">
-        <v>1.095783151750874</v>
+        <v>1.105000724982897</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.073094722724418</v>
+        <v>1.089980194183307</v>
       </c>
       <c r="D4">
-        <v>1.084943434726961</v>
+        <v>1.091990209655082</v>
       </c>
       <c r="E4">
-        <v>1.078089415231578</v>
+        <v>1.092086550247943</v>
       </c>
       <c r="F4">
-        <v>1.090243168721948</v>
+        <v>1.10340800427791</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.085735714841601</v>
+        <v>1.070368042182545</v>
       </c>
       <c r="J4">
-        <v>1.090797011508475</v>
+        <v>1.09426682930401</v>
       </c>
       <c r="K4">
-        <v>1.094114365305278</v>
+        <v>1.09434036633362</v>
       </c>
       <c r="L4">
-        <v>1.087328584643757</v>
+        <v>1.094436489356092</v>
       </c>
       <c r="M4">
-        <v>1.099362048392698</v>
+        <v>1.105732658577304</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.07493930527579</v>
+        <v>1.09035723966544</v>
       </c>
       <c r="D5">
-        <v>1.086471176992984</v>
+        <v>1.092303876991763</v>
       </c>
       <c r="E5">
-        <v>1.079726589546578</v>
+        <v>1.092426632239524</v>
       </c>
       <c r="F5">
-        <v>1.091939489410625</v>
+        <v>1.103764420108821</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.086565931694048</v>
+        <v>1.070511852139323</v>
       </c>
       <c r="J5">
-        <v>1.09219431264261</v>
+        <v>1.094551589998476</v>
       </c>
       <c r="K5">
-        <v>1.095425843091874</v>
+        <v>1.094604477091012</v>
       </c>
       <c r="L5">
-        <v>1.088746522766617</v>
+        <v>1.094726961304534</v>
       </c>
       <c r="M5">
-        <v>1.100841954460882</v>
+        <v>1.106039993833351</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.075247329103471</v>
+        <v>1.090420530899811</v>
       </c>
       <c r="D6">
-        <v>1.086726313528663</v>
+        <v>1.092356528048975</v>
       </c>
       <c r="E6">
-        <v>1.079999981817259</v>
+        <v>1.092483714519825</v>
       </c>
       <c r="F6">
-        <v>1.092222803537754</v>
+        <v>1.103824250229934</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.086704396781012</v>
+        <v>1.070535971988042</v>
       </c>
       <c r="J6">
-        <v>1.092427556540614</v>
+        <v>1.094599378744004</v>
       </c>
       <c r="K6">
-        <v>1.09564475430226</v>
+        <v>1.094648799121887</v>
       </c>
       <c r="L6">
-        <v>1.088983200079011</v>
+        <v>1.094775705851035</v>
       </c>
       <c r="M6">
-        <v>1.101089026586573</v>
+        <v>1.106091575227242</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.073119484307328</v>
+        <v>1.089985233383665</v>
       </c>
       <c r="D7">
-        <v>1.084963941586224</v>
+        <v>1.091994401905894</v>
       </c>
       <c r="E7">
-        <v>1.078111392329719</v>
+        <v>1.092091095715464</v>
       </c>
       <c r="F7">
-        <v>1.090265936760936</v>
+        <v>1.103412767642631</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.085746871144654</v>
+        <v>1.070369965553977</v>
       </c>
       <c r="J7">
-        <v>1.090815774781757</v>
+        <v>1.094270635889946</v>
       </c>
       <c r="K7">
-        <v>1.094131976565762</v>
+        <v>1.094343896960257</v>
       </c>
       <c r="L7">
-        <v>1.087347625800813</v>
+        <v>1.094440372466913</v>
       </c>
       <c r="M7">
-        <v>1.099381918246333</v>
+        <v>1.105736766652964</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.063970015508903</v>
+        <v>1.088163355009003</v>
       </c>
       <c r="D8">
-        <v>1.077389565810907</v>
+        <v>1.09047856549578</v>
       </c>
       <c r="E8">
-        <v>1.069991523824539</v>
+        <v>1.090447233056691</v>
       </c>
       <c r="F8">
-        <v>1.081859188708705</v>
+        <v>1.101690827643009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.081604512025568</v>
+        <v>1.06967223751798</v>
       </c>
       <c r="J8">
-        <v>1.083872391659212</v>
+        <v>1.092893066923423</v>
       </c>
       <c r="K8">
-        <v>1.087614172370477</v>
+        <v>1.093066053436525</v>
       </c>
       <c r="L8">
-        <v>1.08030007978495</v>
+        <v>1.093034799375434</v>
       </c>
       <c r="M8">
-        <v>1.092033760827692</v>
+        <v>1.104250576100673</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.046767923910346</v>
+        <v>1.084943533962803</v>
       </c>
       <c r="D9">
-        <v>1.063167652818139</v>
+        <v>1.087798876399322</v>
       </c>
       <c r="E9">
-        <v>1.054732341190585</v>
+        <v>1.087539736383975</v>
       </c>
       <c r="F9">
-        <v>1.066086967155103</v>
+        <v>1.098648658097259</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.073721701783938</v>
+        <v>1.068428084321367</v>
       </c>
       <c r="J9">
-        <v>1.070770794259728</v>
+        <v>1.090452223236229</v>
       </c>
       <c r="K9">
-        <v>1.075312755086245</v>
+        <v>1.090801249372902</v>
       </c>
       <c r="L9">
-        <v>1.066995726245595</v>
+        <v>1.09054286947142</v>
       </c>
       <c r="M9">
-        <v>1.078191683422277</v>
+        <v>1.101619556008169</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.034447786544476</v>
+        <v>1.082790291539147</v>
       </c>
       <c r="D10">
-        <v>1.052999950297004</v>
+        <v>1.086006386852132</v>
       </c>
       <c r="E10">
-        <v>1.043812832101636</v>
+        <v>1.085593840315151</v>
       </c>
       <c r="F10">
-        <v>1.054818329182744</v>
+        <v>1.096614941751933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.068014299755587</v>
+        <v>1.067588634806157</v>
       </c>
       <c r="J10">
-        <v>1.06135832214901</v>
+        <v>1.088815723389464</v>
       </c>
       <c r="K10">
-        <v>1.066473957928794</v>
+        <v>1.089282343476879</v>
       </c>
       <c r="L10">
-        <v>1.057433661659254</v>
+        <v>1.088871126390436</v>
       </c>
       <c r="M10">
-        <v>1.068263664807743</v>
+        <v>1.099857087590932</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.028878176829511</v>
+        <v>1.081856247571994</v>
       </c>
       <c r="D11">
-        <v>1.048409006173169</v>
+        <v>1.085228731714013</v>
       </c>
       <c r="E11">
-        <v>1.038879668394095</v>
+        <v>1.084749383451912</v>
       </c>
       <c r="F11">
-        <v>1.049731773730603</v>
+        <v>1.095732924199066</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.065420162434587</v>
+        <v>1.067222734341838</v>
       </c>
       <c r="J11">
-        <v>1.05709705272427</v>
+        <v>1.088104841954761</v>
       </c>
       <c r="K11">
-        <v>1.062472309811191</v>
+        <v>1.088622442699819</v>
       </c>
       <c r="L11">
-        <v>1.053103818985835</v>
+        <v>1.088144699399798</v>
       </c>
       <c r="M11">
-        <v>1.06377304746354</v>
+        <v>1.099091851500841</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.026770880252699</v>
+        <v>1.081509043461104</v>
       </c>
       <c r="D12">
-        <v>1.046672962265738</v>
+        <v>1.084939646304385</v>
       </c>
       <c r="E12">
-        <v>1.037013770010249</v>
+        <v>1.084435427519776</v>
       </c>
       <c r="F12">
-        <v>1.047808513930375</v>
+        <v>1.095405086678062</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.06443662136046</v>
+        <v>1.067086457022162</v>
       </c>
       <c r="J12">
-        <v>1.055483926995548</v>
+        <v>1.087840443207345</v>
       </c>
       <c r="K12">
-        <v>1.060957468194665</v>
+        <v>1.088376990194113</v>
       </c>
       <c r="L12">
-        <v>1.051464615606883</v>
+        <v>1.087874483210817</v>
       </c>
       <c r="M12">
-        <v>1.062073724734332</v>
+        <v>1.09880729144066</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.027224700321532</v>
+        <v>1.081583531733422</v>
       </c>
       <c r="D13">
-        <v>1.047046784778864</v>
+        <v>1.08500166657975</v>
       </c>
       <c r="E13">
-        <v>1.037415574740173</v>
+        <v>1.084502785218742</v>
       </c>
       <c r="F13">
-        <v>1.048222641200173</v>
+        <v>1.09547541885009</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.06464852397633</v>
+        <v>1.067115705562607</v>
       </c>
       <c r="J13">
-        <v>1.055831361134909</v>
+        <v>1.08789717336603</v>
       </c>
       <c r="K13">
-        <v>1.061283733516037</v>
+        <v>1.088429655870356</v>
       </c>
       <c r="L13">
-        <v>1.051817671548121</v>
+        <v>1.08793246318719</v>
       </c>
       <c r="M13">
-        <v>1.062439695522692</v>
+        <v>1.098868344986311</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.028704792274458</v>
+        <v>1.081827552886724</v>
       </c>
       <c r="D14">
-        <v>1.04826614720597</v>
+        <v>1.085204840538089</v>
       </c>
       <c r="E14">
-        <v>1.038726132935364</v>
+        <v>1.084723437646997</v>
       </c>
       <c r="F14">
-        <v>1.049573504934092</v>
+        <v>1.095705829506597</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.065339279278912</v>
+        <v>1.067211477091695</v>
       </c>
       <c r="J14">
-        <v>1.0569643443922</v>
+        <v>1.088082993755158</v>
       </c>
       <c r="K14">
-        <v>1.062347686928638</v>
+        <v>1.088602160400639</v>
       </c>
       <c r="L14">
-        <v>1.052968967658452</v>
+        <v>1.0881223712103</v>
       </c>
       <c r="M14">
-        <v>1.063633235150304</v>
+        <v>1.099068336182132</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.029611522183488</v>
+        <v>1.081977867902008</v>
       </c>
       <c r="D15">
-        <v>1.049013280992522</v>
+        <v>1.085329992135978</v>
       </c>
       <c r="E15">
-        <v>1.039529085070108</v>
+        <v>1.084859350674374</v>
       </c>
       <c r="F15">
-        <v>1.050401237977768</v>
+        <v>1.095847764195562</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.065762182687516</v>
+        <v>1.067270436555803</v>
       </c>
       <c r="J15">
-        <v>1.057658320384826</v>
+        <v>1.088197437859191</v>
       </c>
       <c r="K15">
-        <v>1.062999381652398</v>
+        <v>1.08870840147183</v>
       </c>
       <c r="L15">
-        <v>1.053674145309527</v>
+        <v>1.088239328116086</v>
       </c>
       <c r="M15">
-        <v>1.064364385668409</v>
+        <v>1.099191515148508</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.03481220937555</v>
+        <v>1.08285224507252</v>
       </c>
       <c r="D16">
-        <v>1.053300464841515</v>
+        <v>1.08605796533074</v>
       </c>
       <c r="E16">
-        <v>1.044135687946714</v>
+        <v>1.085649844208364</v>
       </c>
       <c r="F16">
-        <v>1.055151314147885</v>
+        <v>1.096673448252685</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.06818375181796</v>
+        <v>1.067612867311858</v>
       </c>
       <c r="J16">
-        <v>1.061637018483824</v>
+        <v>1.088862854054631</v>
       </c>
       <c r="K16">
-        <v>1.06673567391063</v>
+        <v>1.089326092065072</v>
       </c>
       <c r="L16">
-        <v>1.057716825963262</v>
+        <v>1.088919282731688</v>
       </c>
       <c r="M16">
-        <v>1.068557446079366</v>
+        <v>1.099907829593195</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.038009429969366</v>
+        <v>1.083400265309028</v>
       </c>
       <c r="D17">
-        <v>1.055937640465552</v>
+        <v>1.086514199813275</v>
       </c>
       <c r="E17">
-        <v>1.046968604878374</v>
+        <v>1.086145194799398</v>
       </c>
       <c r="F17">
-        <v>1.058073599970555</v>
+        <v>1.097190997781441</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.069668849336411</v>
+        <v>1.067827016842273</v>
       </c>
       <c r="J17">
-        <v>1.064081442869957</v>
+        <v>1.089279641624416</v>
       </c>
       <c r="K17">
-        <v>1.069031156011736</v>
+        <v>1.089712959486814</v>
       </c>
       <c r="L17">
-        <v>1.060200343681685</v>
+        <v>1.08934511334513</v>
       </c>
       <c r="M17">
-        <v>1.07113463818233</v>
+        <v>1.100356595166449</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.039851885401649</v>
+        <v>1.083719755015803</v>
       </c>
       <c r="D18">
-        <v>1.057457878273692</v>
+        <v>1.086780169730763</v>
       </c>
       <c r="E18">
-        <v>1.048601422809061</v>
+        <v>1.086433944296535</v>
       </c>
       <c r="F18">
-        <v>1.059758335214216</v>
+        <v>1.097492740505547</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.070523345183657</v>
+        <v>1.067951693999116</v>
       </c>
       <c r="J18">
-        <v>1.065489503714147</v>
+        <v>1.089522528464413</v>
       </c>
       <c r="K18">
-        <v>1.070353411438888</v>
+        <v>1.089938400330993</v>
       </c>
       <c r="L18">
-        <v>1.06163084307402</v>
+        <v>1.089593247361876</v>
       </c>
       <c r="M18">
-        <v>1.072619556865976</v>
+        <v>1.10061815263569</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.040476401699177</v>
+        <v>1.083828665608352</v>
       </c>
       <c r="D19">
-        <v>1.05797326049651</v>
+        <v>1.086870834335771</v>
       </c>
       <c r="E19">
-        <v>1.049154928440492</v>
+        <v>1.086532370040521</v>
       </c>
       <c r="F19">
-        <v>1.060329509152511</v>
+        <v>1.097595604227403</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.070812758553099</v>
+        <v>1.06799416631878</v>
       </c>
       <c r="J19">
-        <v>1.065966677333411</v>
+        <v>1.089605309731287</v>
       </c>
       <c r="K19">
-        <v>1.070801504479665</v>
+        <v>1.090015233953674</v>
       </c>
       <c r="L19">
-        <v>1.062115606960897</v>
+        <v>1.089677813129164</v>
       </c>
       <c r="M19">
-        <v>1.073122840612137</v>
+        <v>1.100707303231884</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.037668740321069</v>
+        <v>1.083341484651404</v>
       </c>
       <c r="D20">
-        <v>1.055656573417299</v>
+        <v>1.086465265096751</v>
       </c>
       <c r="E20">
-        <v>1.046666702947028</v>
+        <v>1.086092067044367</v>
       </c>
       <c r="F20">
-        <v>1.057762131683825</v>
+        <v>1.097135483639102</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.069510736743017</v>
+        <v>1.067804064710208</v>
       </c>
       <c r="J20">
-        <v>1.063821029744969</v>
+        <v>1.089234946881589</v>
       </c>
       <c r="K20">
-        <v>1.068786611178369</v>
+        <v>1.089671474276733</v>
       </c>
       <c r="L20">
-        <v>1.059935774102931</v>
+        <v>1.089299451213747</v>
       </c>
       <c r="M20">
-        <v>1.070860041282426</v>
+        <v>1.100308467584739</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.028270032473126</v>
+        <v>1.081755701932602</v>
       </c>
       <c r="D21">
-        <v>1.047907945994494</v>
+        <v>1.085145017251646</v>
       </c>
       <c r="E21">
-        <v>1.038341154462407</v>
+        <v>1.084658468978577</v>
       </c>
       <c r="F21">
-        <v>1.049176668558701</v>
+        <v>1.095637985346603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.065136433228459</v>
+        <v>1.067183284880049</v>
       </c>
       <c r="J21">
-        <v>1.056631566390607</v>
+        <v>1.088028283868271</v>
       </c>
       <c r="K21">
-        <v>1.062035184026874</v>
+        <v>1.088551371429081</v>
       </c>
       <c r="L21">
-        <v>1.052630814024891</v>
+        <v>1.088066458810188</v>
       </c>
       <c r="M21">
-        <v>1.063282653366035</v>
+        <v>1.099009452562811</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.022136077611415</v>
+        <v>1.080757157847673</v>
       </c>
       <c r="D22">
-        <v>1.042856633030398</v>
+        <v>1.084313593747887</v>
       </c>
       <c r="E22">
-        <v>1.032911124725993</v>
+        <v>1.083755445196545</v>
       </c>
       <c r="F22">
-        <v>1.043580962630132</v>
+        <v>1.09469519071955</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.062269743620866</v>
+        <v>1.066790859226767</v>
       </c>
       <c r="J22">
-        <v>1.051934532991204</v>
+        <v>1.087267604020678</v>
       </c>
       <c r="K22">
-        <v>1.057624357422055</v>
+        <v>1.087845172077838</v>
       </c>
       <c r="L22">
-        <v>1.047857633948051</v>
+        <v>1.087288974939132</v>
       </c>
       <c r="M22">
-        <v>1.058335838861932</v>
+        <v>1.098190871706243</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.025410271515795</v>
+        <v>1.081286649388855</v>
       </c>
       <c r="D23">
-        <v>1.045552348501745</v>
+        <v>1.084754474949073</v>
       </c>
       <c r="E23">
-        <v>1.035809205666907</v>
+        <v>1.08423431489266</v>
       </c>
       <c r="F23">
-        <v>1.046567104729708</v>
+        <v>1.095195105197545</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.063801018552546</v>
+        <v>1.066999093147652</v>
       </c>
       <c r="J23">
-        <v>1.054442158350972</v>
+        <v>1.087671046417909</v>
       </c>
       <c r="K23">
-        <v>1.059979175381713</v>
+        <v>1.088219727797429</v>
       </c>
       <c r="L23">
-        <v>1.050405973513505</v>
+        <v>1.087701349238956</v>
       </c>
       <c r="M23">
-        <v>1.060976467323538</v>
+        <v>1.098624993012474</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.037822752383991</v>
+        <v>1.083368045598098</v>
       </c>
       <c r="D24">
-        <v>1.055783630904537</v>
+        <v>1.086487377033221</v>
       </c>
       <c r="E24">
-        <v>1.046803179725026</v>
+        <v>1.086116073746175</v>
       </c>
       <c r="F24">
-        <v>1.057902931731375</v>
+        <v>1.097160568507706</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.069582217174738</v>
+        <v>1.067814436509346</v>
       </c>
       <c r="J24">
-        <v>1.063938753840431</v>
+        <v>1.089255143186168</v>
       </c>
       <c r="K24">
-        <v>1.068897161781141</v>
+        <v>1.089690220313363</v>
       </c>
       <c r="L24">
-        <v>1.06005537744292</v>
+        <v>1.089320084724451</v>
       </c>
       <c r="M24">
-        <v>1.070984176211363</v>
+        <v>1.100330214984584</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.051355180540545</v>
+        <v>1.08577708922158</v>
       </c>
       <c r="D25">
-        <v>1.066957515059189</v>
+        <v>1.088492684425884</v>
       </c>
       <c r="E25">
-        <v>1.058800257608998</v>
+        <v>1.088292705006486</v>
       </c>
       <c r="F25">
-        <v>1.07028860509649</v>
+        <v>1.099436097536459</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.075834519408588</v>
+        <v>1.068751481545062</v>
       </c>
       <c r="J25">
-        <v>1.074269766253877</v>
+        <v>1.091084854174532</v>
       </c>
       <c r="K25">
-        <v>1.07859828637451</v>
+        <v>1.091388330432065</v>
       </c>
       <c r="L25">
-        <v>1.070549539123641</v>
+        <v>1.091188915224357</v>
       </c>
       <c r="M25">
-        <v>1.081885661248221</v>
+        <v>1.102301207566203</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_144/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.087693701173381</v>
+        <v>1.061545494721816</v>
       </c>
       <c r="D2">
-        <v>1.090087753345538</v>
+        <v>1.075383502213925</v>
       </c>
       <c r="E2">
-        <v>1.090023313609521</v>
+        <v>1.067840171871069</v>
       </c>
       <c r="F2">
-        <v>1.10124700516267</v>
+        <v>1.079633539989565</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069491623842711</v>
+        <v>1.080500494744262</v>
       </c>
       <c r="J2">
-        <v>1.092537525210106</v>
+        <v>1.082029251517351</v>
       </c>
       <c r="K2">
-        <v>1.092736205283928</v>
+        <v>1.085883791043827</v>
       </c>
       <c r="L2">
-        <v>1.092671930797378</v>
+        <v>1.078428871386704</v>
       </c>
       <c r="M2">
-        <v>1.10386715452933</v>
+        <v>1.090084688808791</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.089082650834224</v>
+        <v>1.068636665358098</v>
       </c>
       <c r="D3">
-        <v>1.091243477302079</v>
+        <v>1.08125208094057</v>
       </c>
       <c r="E3">
-        <v>1.091276826003912</v>
+        <v>1.074132821545711</v>
       </c>
       <c r="F3">
-        <v>1.102559642743688</v>
+        <v>1.086145486101384</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.070024886520649</v>
+        <v>1.083722212484648</v>
       </c>
       <c r="J3">
-        <v>1.093588501226809</v>
+        <v>1.087416343359559</v>
       </c>
       <c r="K3">
-        <v>1.093711178777864</v>
+        <v>1.090941077836051</v>
       </c>
       <c r="L3">
-        <v>1.093744448162252</v>
+        <v>1.08389752153808</v>
       </c>
       <c r="M3">
-        <v>1.105000724982897</v>
+        <v>1.09578315175087</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.089980194183307</v>
+        <v>1.073094722724415</v>
       </c>
       <c r="D4">
-        <v>1.091990209655082</v>
+        <v>1.084943434726958</v>
       </c>
       <c r="E4">
-        <v>1.092086550247943</v>
+        <v>1.078089415231576</v>
       </c>
       <c r="F4">
-        <v>1.10340800427791</v>
+        <v>1.090243168721945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070368042182545</v>
+        <v>1.085735714841599</v>
       </c>
       <c r="J4">
-        <v>1.09426682930401</v>
+        <v>1.090797011508473</v>
       </c>
       <c r="K4">
-        <v>1.09434036633362</v>
+        <v>1.094114365305275</v>
       </c>
       <c r="L4">
-        <v>1.094436489356092</v>
+        <v>1.087328584643755</v>
       </c>
       <c r="M4">
-        <v>1.105732658577304</v>
+        <v>1.099362048392696</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.09035723966544</v>
+        <v>1.074939305275791</v>
       </c>
       <c r="D5">
-        <v>1.092303876991763</v>
+        <v>1.086471176992985</v>
       </c>
       <c r="E5">
-        <v>1.092426632239524</v>
+        <v>1.079726589546578</v>
       </c>
       <c r="F5">
-        <v>1.103764420108821</v>
+        <v>1.091939489410626</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070511852139323</v>
+        <v>1.086565931694049</v>
       </c>
       <c r="J5">
-        <v>1.094551589998476</v>
+        <v>1.092194312642611</v>
       </c>
       <c r="K5">
-        <v>1.094604477091012</v>
+        <v>1.095425843091876</v>
       </c>
       <c r="L5">
-        <v>1.094726961304534</v>
+        <v>1.088746522766618</v>
       </c>
       <c r="M5">
-        <v>1.106039993833351</v>
+        <v>1.100841954460883</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.090420530899811</v>
+        <v>1.075247329103474</v>
       </c>
       <c r="D6">
-        <v>1.092356528048975</v>
+        <v>1.086726313528665</v>
       </c>
       <c r="E6">
-        <v>1.092483714519825</v>
+        <v>1.079999981817262</v>
       </c>
       <c r="F6">
-        <v>1.103824250229934</v>
+        <v>1.092222803537757</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070535971988042</v>
+        <v>1.086704396781014</v>
       </c>
       <c r="J6">
-        <v>1.094599378744004</v>
+        <v>1.092427556540617</v>
       </c>
       <c r="K6">
-        <v>1.094648799121887</v>
+        <v>1.095644754302263</v>
       </c>
       <c r="L6">
-        <v>1.094775705851035</v>
+        <v>1.088983200079013</v>
       </c>
       <c r="M6">
-        <v>1.106091575227242</v>
+        <v>1.101089026586576</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.089985233383665</v>
+        <v>1.073119484307328</v>
       </c>
       <c r="D7">
-        <v>1.091994401905894</v>
+        <v>1.084963941586224</v>
       </c>
       <c r="E7">
-        <v>1.092091095715464</v>
+        <v>1.078111392329719</v>
       </c>
       <c r="F7">
-        <v>1.103412767642631</v>
+        <v>1.090265936760936</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070369965553977</v>
+        <v>1.085746871144654</v>
       </c>
       <c r="J7">
-        <v>1.094270635889946</v>
+        <v>1.090815774781757</v>
       </c>
       <c r="K7">
-        <v>1.094343896960257</v>
+        <v>1.094131976565762</v>
       </c>
       <c r="L7">
-        <v>1.094440372466913</v>
+        <v>1.087347625800813</v>
       </c>
       <c r="M7">
-        <v>1.105736766652964</v>
+        <v>1.099381918246333</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.088163355009003</v>
+        <v>1.063970015508905</v>
       </c>
       <c r="D8">
-        <v>1.09047856549578</v>
+        <v>1.077389565810909</v>
       </c>
       <c r="E8">
-        <v>1.090447233056691</v>
+        <v>1.069991523824541</v>
       </c>
       <c r="F8">
-        <v>1.101690827643009</v>
+        <v>1.081859188708708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.06967223751798</v>
+        <v>1.081604512025569</v>
       </c>
       <c r="J8">
-        <v>1.092893066923423</v>
+        <v>1.083872391659215</v>
       </c>
       <c r="K8">
-        <v>1.093066053436525</v>
+        <v>1.08761417237048</v>
       </c>
       <c r="L8">
-        <v>1.093034799375434</v>
+        <v>1.080300079784952</v>
       </c>
       <c r="M8">
-        <v>1.104250576100673</v>
+        <v>1.092033760827694</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.084943533962803</v>
+        <v>1.046767923910346</v>
       </c>
       <c r="D9">
-        <v>1.087798876399322</v>
+        <v>1.063167652818139</v>
       </c>
       <c r="E9">
-        <v>1.087539736383975</v>
+        <v>1.054732341190585</v>
       </c>
       <c r="F9">
-        <v>1.098648658097259</v>
+        <v>1.066086967155103</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.068428084321367</v>
+        <v>1.073721701783938</v>
       </c>
       <c r="J9">
-        <v>1.090452223236229</v>
+        <v>1.070770794259728</v>
       </c>
       <c r="K9">
-        <v>1.090801249372902</v>
+        <v>1.075312755086245</v>
       </c>
       <c r="L9">
-        <v>1.09054286947142</v>
+        <v>1.066995726245594</v>
       </c>
       <c r="M9">
-        <v>1.101619556008169</v>
+        <v>1.078191683422277</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.082790291539147</v>
+        <v>1.034447786544477</v>
       </c>
       <c r="D10">
-        <v>1.086006386852132</v>
+        <v>1.052999950297005</v>
       </c>
       <c r="E10">
-        <v>1.085593840315151</v>
+        <v>1.043812832101637</v>
       </c>
       <c r="F10">
-        <v>1.096614941751933</v>
+        <v>1.054818329182744</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.067588634806157</v>
+        <v>1.068014299755588</v>
       </c>
       <c r="J10">
-        <v>1.088815723389464</v>
+        <v>1.06135832214901</v>
       </c>
       <c r="K10">
-        <v>1.089282343476879</v>
+        <v>1.066473957928795</v>
       </c>
       <c r="L10">
-        <v>1.088871126390436</v>
+        <v>1.057433661659254</v>
       </c>
       <c r="M10">
-        <v>1.099857087590932</v>
+        <v>1.068263664807744</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.081856247571994</v>
+        <v>1.028878176829511</v>
       </c>
       <c r="D11">
-        <v>1.085228731714013</v>
+        <v>1.04840900617317</v>
       </c>
       <c r="E11">
-        <v>1.084749383451912</v>
+        <v>1.038879668394096</v>
       </c>
       <c r="F11">
-        <v>1.095732924199066</v>
+        <v>1.049731773730604</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.067222734341838</v>
+        <v>1.065420162434587</v>
       </c>
       <c r="J11">
-        <v>1.088104841954761</v>
+        <v>1.057097052724271</v>
       </c>
       <c r="K11">
-        <v>1.088622442699819</v>
+        <v>1.062472309811191</v>
       </c>
       <c r="L11">
-        <v>1.088144699399798</v>
+        <v>1.053103818985835</v>
       </c>
       <c r="M11">
-        <v>1.099091851500841</v>
+        <v>1.06377304746354</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.081509043461104</v>
+        <v>1.026770880252698</v>
       </c>
       <c r="D12">
-        <v>1.084939646304385</v>
+        <v>1.046672962265738</v>
       </c>
       <c r="E12">
-        <v>1.084435427519776</v>
+        <v>1.037013770010248</v>
       </c>
       <c r="F12">
-        <v>1.095405086678062</v>
+        <v>1.047808513930374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.067086457022162</v>
+        <v>1.06443662136046</v>
       </c>
       <c r="J12">
-        <v>1.087840443207345</v>
+        <v>1.055483926995548</v>
       </c>
       <c r="K12">
-        <v>1.088376990194113</v>
+        <v>1.060957468194664</v>
       </c>
       <c r="L12">
-        <v>1.087874483210817</v>
+        <v>1.051464615606882</v>
       </c>
       <c r="M12">
-        <v>1.09880729144066</v>
+        <v>1.062073724734331</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.081583531733422</v>
+        <v>1.027224700321533</v>
       </c>
       <c r="D13">
-        <v>1.08500166657975</v>
+        <v>1.047046784778865</v>
       </c>
       <c r="E13">
-        <v>1.084502785218742</v>
+        <v>1.037415574740173</v>
       </c>
       <c r="F13">
-        <v>1.09547541885009</v>
+        <v>1.048222641200174</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.067115705562607</v>
+        <v>1.064648523976331</v>
       </c>
       <c r="J13">
-        <v>1.08789717336603</v>
+        <v>1.055831361134909</v>
       </c>
       <c r="K13">
-        <v>1.088429655870356</v>
+        <v>1.061283733516039</v>
       </c>
       <c r="L13">
-        <v>1.08793246318719</v>
+        <v>1.051817671548121</v>
       </c>
       <c r="M13">
-        <v>1.098868344986311</v>
+        <v>1.062439695522692</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.081827552886724</v>
+        <v>1.028704792274455</v>
       </c>
       <c r="D14">
-        <v>1.085204840538089</v>
+        <v>1.048266147205968</v>
       </c>
       <c r="E14">
-        <v>1.084723437646997</v>
+        <v>1.038726132935362</v>
       </c>
       <c r="F14">
-        <v>1.095705829506597</v>
+        <v>1.049573504934089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.067211477091695</v>
+        <v>1.06533927927891</v>
       </c>
       <c r="J14">
-        <v>1.088082993755158</v>
+        <v>1.056964344392198</v>
       </c>
       <c r="K14">
-        <v>1.088602160400639</v>
+        <v>1.062347686928636</v>
       </c>
       <c r="L14">
-        <v>1.0881223712103</v>
+        <v>1.052968967658449</v>
       </c>
       <c r="M14">
-        <v>1.099068336182132</v>
+        <v>1.063633235150301</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.081977867902008</v>
+        <v>1.029611522183488</v>
       </c>
       <c r="D15">
-        <v>1.085329992135978</v>
+        <v>1.049013280992522</v>
       </c>
       <c r="E15">
-        <v>1.084859350674374</v>
+        <v>1.039529085070108</v>
       </c>
       <c r="F15">
-        <v>1.095847764195562</v>
+        <v>1.050401237977768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.067270436555803</v>
+        <v>1.065762182687516</v>
       </c>
       <c r="J15">
-        <v>1.088197437859191</v>
+        <v>1.057658320384826</v>
       </c>
       <c r="K15">
-        <v>1.08870840147183</v>
+        <v>1.062999381652398</v>
       </c>
       <c r="L15">
-        <v>1.088239328116086</v>
+        <v>1.053674145309527</v>
       </c>
       <c r="M15">
-        <v>1.099191515148508</v>
+        <v>1.064364385668409</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.08285224507252</v>
+        <v>1.034812209375551</v>
       </c>
       <c r="D16">
-        <v>1.08605796533074</v>
+        <v>1.053300464841515</v>
       </c>
       <c r="E16">
-        <v>1.085649844208364</v>
+        <v>1.044135687946714</v>
       </c>
       <c r="F16">
-        <v>1.096673448252685</v>
+        <v>1.055151314147885</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.067612867311858</v>
+        <v>1.06818375181796</v>
       </c>
       <c r="J16">
-        <v>1.088862854054631</v>
+        <v>1.061637018483824</v>
       </c>
       <c r="K16">
-        <v>1.089326092065072</v>
+        <v>1.06673567391063</v>
       </c>
       <c r="L16">
-        <v>1.088919282731688</v>
+        <v>1.057716825963263</v>
       </c>
       <c r="M16">
-        <v>1.099907829593195</v>
+        <v>1.068557446079366</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.083400265309028</v>
+        <v>1.038009429969366</v>
       </c>
       <c r="D17">
-        <v>1.086514199813275</v>
+        <v>1.055937640465551</v>
       </c>
       <c r="E17">
-        <v>1.086145194799398</v>
+        <v>1.046968604878374</v>
       </c>
       <c r="F17">
-        <v>1.097190997781441</v>
+        <v>1.058073599970555</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.067827016842273</v>
+        <v>1.069668849336411</v>
       </c>
       <c r="J17">
-        <v>1.089279641624416</v>
+        <v>1.064081442869957</v>
       </c>
       <c r="K17">
-        <v>1.089712959486814</v>
+        <v>1.069031156011736</v>
       </c>
       <c r="L17">
-        <v>1.08934511334513</v>
+        <v>1.060200343681685</v>
       </c>
       <c r="M17">
-        <v>1.100356595166449</v>
+        <v>1.07113463818233</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.083719755015803</v>
+        <v>1.039851885401649</v>
       </c>
       <c r="D18">
-        <v>1.086780169730763</v>
+        <v>1.057457878273692</v>
       </c>
       <c r="E18">
-        <v>1.086433944296535</v>
+        <v>1.048601422809061</v>
       </c>
       <c r="F18">
-        <v>1.097492740505547</v>
+        <v>1.059758335214217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.067951693999116</v>
+        <v>1.070523345183657</v>
       </c>
       <c r="J18">
-        <v>1.089522528464413</v>
+        <v>1.065489503714148</v>
       </c>
       <c r="K18">
-        <v>1.089938400330993</v>
+        <v>1.070353411438888</v>
       </c>
       <c r="L18">
-        <v>1.089593247361876</v>
+        <v>1.06163084307402</v>
       </c>
       <c r="M18">
-        <v>1.10061815263569</v>
+        <v>1.072619556865977</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.083828665608352</v>
+        <v>1.040476401699179</v>
       </c>
       <c r="D19">
-        <v>1.086870834335771</v>
+        <v>1.057973260496512</v>
       </c>
       <c r="E19">
-        <v>1.086532370040521</v>
+        <v>1.049154928440494</v>
       </c>
       <c r="F19">
-        <v>1.097595604227403</v>
+        <v>1.060329509152512</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.06799416631878</v>
+        <v>1.0708127585531</v>
       </c>
       <c r="J19">
-        <v>1.089605309731287</v>
+        <v>1.065966677333412</v>
       </c>
       <c r="K19">
-        <v>1.090015233953674</v>
+        <v>1.070801504479666</v>
       </c>
       <c r="L19">
-        <v>1.089677813129164</v>
+        <v>1.062115606960898</v>
       </c>
       <c r="M19">
-        <v>1.100707303231884</v>
+        <v>1.073122840612139</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.083341484651404</v>
+        <v>1.037668740321065</v>
       </c>
       <c r="D20">
-        <v>1.086465265096751</v>
+        <v>1.055656573417296</v>
       </c>
       <c r="E20">
-        <v>1.086092067044367</v>
+        <v>1.046666702947024</v>
       </c>
       <c r="F20">
-        <v>1.097135483639102</v>
+        <v>1.057762131683822</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.067804064710208</v>
+        <v>1.069510736743015</v>
       </c>
       <c r="J20">
-        <v>1.089234946881589</v>
+        <v>1.063821029744965</v>
       </c>
       <c r="K20">
-        <v>1.089671474276733</v>
+        <v>1.068786611178365</v>
       </c>
       <c r="L20">
-        <v>1.089299451213747</v>
+        <v>1.059935774102928</v>
       </c>
       <c r="M20">
-        <v>1.100308467584739</v>
+        <v>1.070860041282423</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.081755701932602</v>
+        <v>1.028270032473129</v>
       </c>
       <c r="D21">
-        <v>1.085145017251646</v>
+        <v>1.047907945994496</v>
       </c>
       <c r="E21">
-        <v>1.084658468978577</v>
+        <v>1.038341154462409</v>
       </c>
       <c r="F21">
-        <v>1.095637985346603</v>
+        <v>1.049176668558703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.067183284880049</v>
+        <v>1.06513643322846</v>
       </c>
       <c r="J21">
-        <v>1.088028283868271</v>
+        <v>1.05663156639061</v>
       </c>
       <c r="K21">
-        <v>1.088551371429081</v>
+        <v>1.062035184026876</v>
       </c>
       <c r="L21">
-        <v>1.088066458810188</v>
+        <v>1.052630814024894</v>
       </c>
       <c r="M21">
-        <v>1.099009452562811</v>
+        <v>1.063282653366038</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.080757157847673</v>
+        <v>1.022136077611416</v>
       </c>
       <c r="D22">
-        <v>1.084313593747887</v>
+        <v>1.042856633030399</v>
       </c>
       <c r="E22">
-        <v>1.083755445196545</v>
+        <v>1.032911124725994</v>
       </c>
       <c r="F22">
-        <v>1.09469519071955</v>
+        <v>1.043580962630132</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.066790859226767</v>
+        <v>1.062269743620867</v>
       </c>
       <c r="J22">
-        <v>1.087267604020678</v>
+        <v>1.051934532991205</v>
       </c>
       <c r="K22">
-        <v>1.087845172077838</v>
+        <v>1.057624357422056</v>
       </c>
       <c r="L22">
-        <v>1.087288974939132</v>
+        <v>1.047857633948052</v>
       </c>
       <c r="M22">
-        <v>1.098190871706243</v>
+        <v>1.058335838861933</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.081286649388855</v>
+        <v>1.025410271515797</v>
       </c>
       <c r="D23">
-        <v>1.084754474949073</v>
+        <v>1.045552348501747</v>
       </c>
       <c r="E23">
-        <v>1.08423431489266</v>
+        <v>1.035809205666909</v>
       </c>
       <c r="F23">
-        <v>1.095195105197545</v>
+        <v>1.04656710472971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.066999093147652</v>
+        <v>1.063801018552547</v>
       </c>
       <c r="J23">
-        <v>1.087671046417909</v>
+        <v>1.054442158350974</v>
       </c>
       <c r="K23">
-        <v>1.088219727797429</v>
+        <v>1.059979175381715</v>
       </c>
       <c r="L23">
-        <v>1.087701349238956</v>
+        <v>1.050405973513507</v>
       </c>
       <c r="M23">
-        <v>1.098624993012474</v>
+        <v>1.06097646732354</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.083368045598098</v>
+        <v>1.037822752383994</v>
       </c>
       <c r="D24">
-        <v>1.086487377033221</v>
+        <v>1.055783630904539</v>
       </c>
       <c r="E24">
-        <v>1.086116073746175</v>
+        <v>1.046803179725029</v>
       </c>
       <c r="F24">
-        <v>1.097160568507706</v>
+        <v>1.057902931731378</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.067814436509346</v>
+        <v>1.06958221717474</v>
       </c>
       <c r="J24">
-        <v>1.089255143186168</v>
+        <v>1.063938753840433</v>
       </c>
       <c r="K24">
-        <v>1.089690220313363</v>
+        <v>1.068897161781144</v>
       </c>
       <c r="L24">
-        <v>1.089320084724451</v>
+        <v>1.060055377442923</v>
       </c>
       <c r="M24">
-        <v>1.100330214984584</v>
+        <v>1.070984176211365</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.08577708922158</v>
+        <v>1.051355180540543</v>
       </c>
       <c r="D25">
-        <v>1.088492684425884</v>
+        <v>1.066957515059187</v>
       </c>
       <c r="E25">
-        <v>1.088292705006486</v>
+        <v>1.058800257608996</v>
       </c>
       <c r="F25">
-        <v>1.099436097536459</v>
+        <v>1.070288605096487</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068751481545062</v>
+        <v>1.075834519408587</v>
       </c>
       <c r="J25">
-        <v>1.091084854174532</v>
+        <v>1.074269766253875</v>
       </c>
       <c r="K25">
-        <v>1.091388330432065</v>
+        <v>1.078598286374508</v>
       </c>
       <c r="L25">
-        <v>1.091188915224357</v>
+        <v>1.070549539123639</v>
       </c>
       <c r="M25">
-        <v>1.102301207566203</v>
+        <v>1.081885661248219</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
